--- a/biology/Médecine/1243_en_santé_et_médecine/1243_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1243_en_santé_et_médecine/1243_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1243_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1243_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1243 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1243_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1243_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En ordonnant que l'étude et la pratique de la médecine soient expressément interdites par les statuts des ordres religieux, le concile de Béziers renouvelle et renforce les prescriptions ordonnées à ceux du Latran (1139), de Reims (1148), de Montpellier (1162), de Tours (1163), de Paris (1212) et encore du Latran (1215[1]).
-À Paris, un chapitre des dominicains inclut dans les statuts de leur ordre l'interdiction d'étudier et d'exercer la médecine, telle que vient de la prononcer le concile de Béziers[1],[2].
-Deux hôpitaux sont attestés à Autun en Bourgogne : l'un, l'hôpital Saint-Nicolas et Saint-Éloi, est connu sous le nom de Domus Dei de foro Eduensi (« maison-Dieu de la place d'Autun ») ; et l'autre, l'hôpital du Saint-Esprit, dit du Châtel d'Autun, est mentionné comme Domus Dei de castro Eduensi dans le testament de Gauthier de Saint-Symphorien[3].
-Une léproserie est attestée à Bourg-Achard, en Normandie[4].
-Le roi Louis IX fonde un hôpital à Castelsarrasin, dans le Quercy[5].
-Première mention à Tamworth, dans le Staffordshire en Angleterre, de l'hôpital St. James, qui perdurera jusqu'à la Dissolution[6].
-Le médecin Élie de Londres (en) est nommé presbyter Judaeorum d'Angleterre[7].
-Le médecin copte Al-Hakîm al-Qibtîest est élu patriarche melkite d'Alexandrie sous le nom de Grégoire Ier[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En ordonnant que l'étude et la pratique de la médecine soient expressément interdites par les statuts des ordres religieux, le concile de Béziers renouvelle et renforce les prescriptions ordonnées à ceux du Latran (1139), de Reims (1148), de Montpellier (1162), de Tours (1163), de Paris (1212) et encore du Latran (1215).
+À Paris, un chapitre des dominicains inclut dans les statuts de leur ordre l'interdiction d'étudier et d'exercer la médecine, telle que vient de la prononcer le concile de Béziers,.
+Deux hôpitaux sont attestés à Autun en Bourgogne : l'un, l'hôpital Saint-Nicolas et Saint-Éloi, est connu sous le nom de Domus Dei de foro Eduensi (« maison-Dieu de la place d'Autun ») ; et l'autre, l'hôpital du Saint-Esprit, dit du Châtel d'Autun, est mentionné comme Domus Dei de castro Eduensi dans le testament de Gauthier de Saint-Symphorien.
+Une léproserie est attestée à Bourg-Achard, en Normandie.
+Le roi Louis IX fonde un hôpital à Castelsarrasin, dans le Quercy.
+Première mention à Tamworth, dans le Staffordshire en Angleterre, de l'hôpital St. James, qui perdurera jusqu'à la Dissolution.
+Le médecin Élie de Londres (en) est nommé presbyter Judaeorum d'Angleterre.
+Le médecin copte Al-Hakîm al-Qibtîest est élu patriarche melkite d'Alexandrie sous le nom de Grégoire Ier.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1243_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1243_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1243-1257 : diffusion à Rome d'un « régime de santé » attribué à Roger Bacon, le De retardatione accidentium senectutis (« Des moyens de retarder la vieillesse[9] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1243-1257 : diffusion à Rome d'un « régime de santé » attribué à Roger Bacon, le De retardatione accidentium senectutis (« Des moyens de retarder la vieillesse »).</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1243_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1243_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Gilles, médecin, au service de Sybille de Hainaut, dame de Beaujeu, et de son fils Humbert[7].
-Avant 1243 : fl. Garin, médecin de Mulceio (probablement Mieuxcé), cité dans une charte du prieuré Saint-Hippolyte de Vivoin, dans le Maine[7].
-Vers 1242-1243 : fl. Guillaume Bernardi Dairos, médecin cathare ; il visite des malades à Puylaurens en Albigeois[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Gilles, médecin, au service de Sybille de Hainaut, dame de Beaujeu, et de son fils Humbert.
+Avant 1243 : fl. Garin, médecin de Mulceio (probablement Mieuxcé), cité dans une charte du prieuré Saint-Hippolyte de Vivoin, dans le Maine.
+Vers 1242-1243 : fl. Guillaume Bernardi Dairos, médecin cathare ; il visite des malades à Puylaurens en Albigeois.</t>
         </is>
       </c>
     </row>
